--- a/5_term/SIFO/lab4/ISA_lab4.xlsx
+++ b/5_term/SIFO/lab4/ISA_lab4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>R+C -&gt; M</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>000</t>
+  </si>
+  <si>
+    <t>001010000</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +728,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,160 +902,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1214,7 +1220,7 @@
   <dimension ref="A2:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="W28" sqref="W28:X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,12 +1240,12 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -1251,48 +1257,48 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="11"/>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="53" t="s">
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="70"/>
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="11"/>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -1306,151 +1312,151 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="52" t="s">
+      <c r="W9" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="72"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="50">
         <v>0</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="51">
         <v>1</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="74" t="s">
+      <c r="M10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="74" t="s">
+      <c r="N10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="74" t="s">
+      <c r="O10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="83" t="s">
+      <c r="P10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="86" t="s">
+      <c r="R10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="86" t="s">
+      <c r="S10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="T10" s="86" t="s">
+      <c r="T10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="86" t="s">
+      <c r="U10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="75" t="s">
+      <c r="V10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W10" s="94" t="s">
+      <c r="W10" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="87" t="s">
+      <c r="X10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="88" t="s">
+      <c r="Y10" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="72"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="52">
         <v>1</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="53">
         <v>0</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="K11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="M11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="N11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="O11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="84" t="s">
+      <c r="P11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="89" t="s">
+      <c r="Q11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="90" t="s">
+      <c r="R11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="91" t="s">
+      <c r="S11" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="90" t="s">
+      <c r="T11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="96" t="s">
+      <c r="V11" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="95" t="s">
+      <c r="W11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="92" t="s">
+      <c r="X11" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="Y11" s="93" t="s">
+      <c r="Y11" s="64" t="s">
         <v>41</v>
       </c>
       <c r="Z11" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="G16" s="52" t="s">
+      <c r="E16" s="70"/>
+      <c r="G16" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1468,14 +1474,14 @@
       <c r="G17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="57" t="s">
+      <c r="I17" s="94"/>
+      <c r="J17" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="22" t="s">
         <v>6</v>
       </c>
@@ -1488,12 +1494,12 @@
       <c r="O17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
       <c r="V17" s="19" t="s">
         <v>30</v>
       </c>
@@ -1524,10 +1530,10 @@
       <c r="G18" s="40">
         <v>0</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1546,14 +1552,14 @@
       <c r="O18" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98" t="s">
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="99"/>
+      <c r="S18" s="75"/>
       <c r="V18" s="8">
         <v>10</v>
       </c>
@@ -1584,10 +1590,10 @@
       <c r="G19" s="40">
         <v>2</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="13">
         <v>4</v>
       </c>
@@ -1604,14 +1610,14 @@
       <c r="O19" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="68" t="s">
+      <c r="P19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69" t="s">
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="100"/>
+      <c r="S19" s="78"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
@@ -1622,18 +1628,18 @@
       <c r="G20" s="40">
         <v>4</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="13"/>
       <c r="K20" s="16"/>
       <c r="L20" s="27"/>
       <c r="M20" s="28"/>
       <c r="N20" s="29"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="100"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="78"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
@@ -1644,18 +1650,18 @@
       <c r="G21" s="40">
         <v>6</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="13"/>
       <c r="K21" s="16"/>
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
       <c r="N21" s="29"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="100"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="78"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -1674,10 +1680,10 @@
       <c r="G22" s="40">
         <v>8</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="60"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="13" t="s">
         <v>35</v>
       </c>
@@ -1696,14 +1702,14 @@
       <c r="O22" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="68" t="s">
+      <c r="P22" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69" t="s">
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="100"/>
+      <c r="S22" s="78"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
@@ -1722,10 +1728,10 @@
       <c r="G23" s="40">
         <v>10</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="13">
         <v>8</v>
       </c>
@@ -1742,14 +1748,14 @@
       <c r="O23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="68" t="s">
+      <c r="P23" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69" t="s">
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="100"/>
+      <c r="S23" s="78"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
@@ -1760,18 +1766,18 @@
       <c r="G24" s="40">
         <v>12</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
       <c r="L24" s="27"/>
       <c r="M24" s="28"/>
       <c r="N24" s="29"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="100"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="78"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
@@ -1782,18 +1788,21 @@
       <c r="G25" s="40">
         <v>14</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="13"/>
       <c r="K25" s="16"/>
       <c r="L25" s="27"/>
       <c r="M25" s="28"/>
       <c r="N25" s="29"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="100"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="78"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
@@ -1804,18 +1813,21 @@
       <c r="G26" s="40">
         <v>16</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="13"/>
       <c r="K26" s="16"/>
       <c r="L26" s="27"/>
       <c r="M26" s="28"/>
       <c r="N26" s="29"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="100"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="78"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
@@ -1826,18 +1838,21 @@
       <c r="G27" s="40">
         <v>18</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="13"/>
       <c r="K27" s="16"/>
       <c r="L27" s="27"/>
       <c r="M27" s="28"/>
       <c r="N27" s="29"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="100"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="78"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -1856,10 +1871,10 @@
       <c r="G28" s="40">
         <v>20</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="60"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="13" t="s">
         <v>36</v>
       </c>
@@ -1878,14 +1893,22 @@
       <c r="O28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="68" t="s">
+      <c r="P28" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69" t="s">
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="100"/>
+      <c r="S28" s="78"/>
+      <c r="U28" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="X28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
@@ -1904,10 +1927,10 @@
       <c r="G29" s="40">
         <v>22</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="13">
         <v>2</v>
       </c>
@@ -1924,40 +1947,46 @@
       <c r="O29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="68" t="s">
+      <c r="P29" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69" t="s">
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="100"/>
+      <c r="S29" s="78"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G30" s="40">
         <v>24</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="13"/>
       <c r="K30" s="16"/>
       <c r="L30" s="30"/>
       <c r="M30" s="31"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="97"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="41">
         <v>26</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="56"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
       <c r="L31" s="33" t="s">
@@ -1970,14 +1999,17 @@
         <v>24</v>
       </c>
       <c r="O31" s="37"/>
-      <c r="P31" s="46" t="s">
+      <c r="P31" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47" t="s">
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="S31" s="48"/>
+      <c r="S31" s="100"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
@@ -1995,28 +2027,25 @@
       <c r="H33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H9:I9"/>
+  <mergeCells count="56">
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H8:P8"/>
     <mergeCell ref="Q8:Y8"/>
@@ -2033,23 +2062,28 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_term/SIFO/lab4/ISA_lab4.xlsx
+++ b/5_term/SIFO/lab4/ISA_lab4.xlsx
@@ -616,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,6 +803,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,12 +857,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,84 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1220,7 +1226,7 @@
   <dimension ref="A2:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28:X28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,12 +1246,12 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -1257,48 +1263,48 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="11"/>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="69" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="70"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="85"/>
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="11"/>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -1312,11 +1318,11 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="68" t="s">
+      <c r="W9" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="70"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="85"/>
       <c r="Z9" s="43"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1441,22 +1447,22 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="G16" s="68" t="s">
+      <c r="E16" s="85"/>
+      <c r="G16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1474,14 +1480,14 @@
       <c r="G17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="89" t="s">
+      <c r="I17" s="95"/>
+      <c r="J17" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="90"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="22" t="s">
         <v>6</v>
       </c>
@@ -1494,12 +1500,12 @@
       <c r="O17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="68" t="s">
+      <c r="P17" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="70"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
       <c r="V17" s="19" t="s">
         <v>30</v>
       </c>
@@ -1530,10 +1536,10 @@
       <c r="G18" s="40">
         <v>0</v>
       </c>
-      <c r="H18" s="91" t="s">
+      <c r="H18" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1552,14 +1558,14 @@
       <c r="O18" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="73" t="s">
+      <c r="P18" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74" t="s">
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="75"/>
+      <c r="S18" s="103"/>
       <c r="V18" s="8">
         <v>10</v>
       </c>
@@ -1590,10 +1596,10 @@
       <c r="G19" s="40">
         <v>2</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I19" s="91"/>
       <c r="J19" s="13">
         <v>4</v>
       </c>
@@ -1610,14 +1616,14 @@
       <c r="O19" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77" t="s">
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="78"/>
+      <c r="S19" s="79"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
@@ -1628,18 +1634,18 @@
       <c r="G20" s="40">
         <v>4</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="13"/>
       <c r="K20" s="16"/>
       <c r="L20" s="27"/>
       <c r="M20" s="28"/>
       <c r="N20" s="29"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="78"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
@@ -1650,18 +1656,24 @@
       <c r="G21" s="40">
         <v>6</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="16"/>
+      <c r="H21" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="78"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -1680,16 +1692,14 @@
       <c r="G22" s="40">
         <v>8</v>
       </c>
-      <c r="H22" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="H22" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="13">
+        <v>8</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="27" t="s">
         <v>54</v>
       </c>
@@ -1702,14 +1712,14 @@
       <c r="O22" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="76" t="s">
+      <c r="P22" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77" t="s">
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="78"/>
+      <c r="S22" s="79"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
@@ -1728,14 +1738,6 @@
       <c r="G23" s="40">
         <v>10</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="13">
-        <v>8</v>
-      </c>
-      <c r="K23" s="16"/>
       <c r="L23" s="27" t="s">
         <v>55</v>
       </c>
@@ -1748,14 +1750,14 @@
       <c r="O23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="76" t="s">
+      <c r="P23" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77" t="s">
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="78"/>
+      <c r="S23" s="79"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
@@ -1766,18 +1768,14 @@
       <c r="G24" s="40">
         <v>12</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="16"/>
       <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="78"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="79"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
@@ -1788,18 +1786,14 @@
       <c r="G25" s="40">
         <v>14</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="16"/>
       <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="78"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="79"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -1813,18 +1807,24 @@
       <c r="G26" s="40">
         <v>16</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="16"/>
+      <c r="H26" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="91"/>
+      <c r="J26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="78"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="79"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -1838,18 +1838,22 @@
       <c r="G27" s="40">
         <v>18</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="91"/>
+      <c r="J27" s="13">
+        <v>2</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="78"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="79"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -1871,16 +1875,6 @@
       <c r="G28" s="40">
         <v>20</v>
       </c>
-      <c r="H28" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="L28" s="27" t="s">
         <v>54</v>
       </c>
@@ -1893,22 +1887,22 @@
       <c r="O28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="76" t="s">
+      <c r="P28" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77" t="s">
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="78"/>
-      <c r="U28" s="101" t="s">
+      <c r="S28" s="79"/>
+      <c r="U28" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101" t="s">
+      <c r="V28" s="70"/>
+      <c r="W28" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="X28" s="101"/>
+      <c r="X28" s="70"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
@@ -1927,14 +1921,6 @@
       <c r="G29" s="40">
         <v>22</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="13">
-        <v>2</v>
-      </c>
-      <c r="K29" s="16"/>
       <c r="L29" s="27" t="s">
         <v>55</v>
       </c>
@@ -1947,14 +1933,14 @@
       <c r="O29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="76" t="s">
+      <c r="P29" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77" t="s">
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="78"/>
+      <c r="S29" s="79"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -1963,18 +1949,18 @@
       <c r="G30" s="40">
         <v>24</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="13"/>
       <c r="K30" s="16"/>
       <c r="L30" s="30"/>
       <c r="M30" s="31"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="97"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="73"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -1983,10 +1969,10 @@
       <c r="G31" s="41">
         <v>26</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="88"/>
+      <c r="I31" s="87"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
       <c r="L31" s="33" t="s">
@@ -1999,14 +1985,14 @@
         <v>24</v>
       </c>
       <c r="O31" s="37"/>
-      <c r="P31" s="98" t="s">
+      <c r="P31" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99" t="s">
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="S31" s="100"/>
+      <c r="S31" s="76"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -2027,51 +2013,10 @@
       <c r="H33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="Q8:Y8"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+  <mergeCells count="51">
+    <mergeCell ref="W9:Y9"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="W9:Y9"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P19:Q19"/>
@@ -2084,6 +2029,42 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="Q8:Y8"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="U28:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
